--- a/biology/Zoologie/Bathyraja_bergi/Bathyraja_bergi.xlsx
+++ b/biology/Zoologie/Bathyraja_bergi/Bathyraja_bergi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bathyraja bergi est une espèce de raies de la famille des Arhynchobatidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce atteint une taille moyenne de 129 cm et un poids moyen de 13,84 kg[1]. C'est un prédateur qui se nourrit de décapodes en majorité (59,9 %), de céphalopodes (23,0 %) et de poissons (15,3 %)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce atteint une taille moyenne de 129 cm et un poids moyen de 13,84 kg. C'est un prédateur qui se nourrit de décapodes en majorité (59,9 %), de céphalopodes (23,0 %) et de poissons (15,3 %).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans l 'Océan Pacifique nord occidental, à savoir en Chine, au Japon, et en Russie[2]. Sa présence autour de Taïwan reste incertaine [2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans l 'Océan Pacifique nord occidental, à savoir en Chine, au Japon, et en Russie. Sa présence autour de Taïwan reste incertaine .
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un poisson démersal vivant dans les climats polaires à une profondeur de 300 m à 1 800 m de profondeur[3],[4]. On le retrouve plus précisément à des profondeurs de 38 m à 577 m où la température de l'eau est de 0,3 à 3,8 °C[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un poisson démersal vivant dans les climats polaires à une profondeur de 300 m à 1 800 m de profondeur,. On le retrouve plus précisément à des profondeurs de 38 m à 577 m où la température de l'eau est de 0,3 à 3,8 °C.
 </t>
         </is>
       </c>
@@ -604,11 +622,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Bathyraja bergi Dolganov, 1983[5].
-Étymologie
-L'étymologie de l'épithète de ce poisson a été donné en l'honneur de l’ichtyologiste Lev Berg[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Bathyraja bergi Dolganov, 1983.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bathyraja_bergi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bathyraja_bergi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de l'épithète de ce poisson a été donné en l'honneur de l’ichtyologiste Lev Berg.
 </t>
         </is>
       </c>
